--- a/Technical_research/comp_time.xlsx
+++ b/Technical_research/comp_time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sven\Documents\BEP_sbierenbroodspot_1334859\Technical_research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A267ACF0-A1C7-4D18-B247-2DB97B3A5FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE3B3CE-4825-45C6-82DC-CF3BB2183EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="3735" windowWidth="16410" windowHeight="15345" xr2:uid="{77FD14E4-9688-45DF-B531-4EE090791C4B}"/>
+    <workbookView xWindow="38280" yWindow="-8670" windowWidth="16440" windowHeight="28320" xr2:uid="{77FD14E4-9688-45DF-B531-4EE090791C4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>run 1</t>
   </si>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F1A418-703B-468D-B281-B7AA1A015736}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,6 +570,123 @@
         <v>296.4038333333333</v>
       </c>
     </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.45555377006530701</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.48815369606018</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.45881700515746998</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.47858405113220198</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.45063209533691401</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.47627520561218201</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.45399928092956499</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.45215487480163502</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.46784806251525801</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.45345473289489702</v>
+      </c>
+      <c r="N18">
+        <f>AVERAGE(B18:K18)</f>
+        <v>0.46354727745056101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.52177071571350098</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.51118373870849598</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.487478017807006</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.50805521011352495</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.495318412780761</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.48534226417541498</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.51534461975097601</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.49433374404907199</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.49703216552734297</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.50041699409484797</v>
+      </c>
+      <c r="N19">
+        <f>AVERAGE(B19:K19)</f>
+        <v>0.5016275882720943</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.53920817375183105</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.50558519363403298</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.54052948951721103</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.54378581047058105</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.54618048667907704</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.50393342971801702</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.54726982116699197</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.53825616836547796</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.50890588760375899</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.52417159080505304</v>
+      </c>
+      <c r="N20">
+        <f>AVERAGE(B20:K20)</f>
+        <v>0.52978260517120312</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Technical_research/comp_time.xlsx
+++ b/Technical_research/comp_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sven\Documents\BEP_sbierenbroodspot_1334859\Technical_research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE3B3CE-4825-45C6-82DC-CF3BB2183EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8C2E70-EF4D-40A7-A7E6-E7FF146F5E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-8670" windowWidth="16440" windowHeight="28320" xr2:uid="{77FD14E4-9688-45DF-B531-4EE090791C4B}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
